--- a/Base/Backlog_5.xlsx
+++ b/Base/Backlog_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1535AF64-29F1-42D5-B7DE-D1BB31B58057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4E0A1-0DD1-488D-93D0-C2AC64071A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Alana Neris</t>
   </si>
   <si>
-    <t>Semana 06</t>
-  </si>
-  <si>
     <t>Lourival Moizés</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Gustavo Linpiski</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>45600</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>16</v>
@@ -711,7 +711,7 @@
         <v>45600</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>16</v>
@@ -807,7 +807,7 @@
         <v>45600</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>16</v>
@@ -903,7 +903,7 @@
         <v>45600</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>16</v>
@@ -935,7 +935,7 @@
         <v>45600</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>16</v>
@@ -967,7 +967,7 @@
         <v>45600</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>16</v>
@@ -999,7 +999,7 @@
         <v>45600</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>16</v>
@@ -1031,7 +1031,7 @@
         <v>45600</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>16</v>
@@ -1159,7 +1159,7 @@
         <v>45600</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>16</v>
@@ -1191,7 +1191,7 @@
         <v>45600</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>16</v>
@@ -1255,7 +1255,7 @@
         <v>45600</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         <v>45600</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>16</v>
@@ -1319,7 +1319,7 @@
         <v>45600</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>16</v>
@@ -1383,7 +1383,7 @@
         <v>45600</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>16</v>
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>22</v>
@@ -1415,7 +1415,7 @@
         <v>45600</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>16</v>
@@ -1458,20 +1458,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.5703125" style="2"/>
@@ -1581,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12">
         <v>45600</v>
@@ -1631,7 +1631,7 @@
         <v>45600</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>17</v>
@@ -1663,7 +1663,7 @@
         <v>45600</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>17</v>
@@ -1759,7 +1759,7 @@
         <v>45600</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>17</v>
@@ -1887,7 +1887,7 @@
         <v>45600</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>17</v>
@@ -2053,7 +2053,7 @@
         <v>45600</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>17</v>
@@ -2117,7 +2117,7 @@
         <v>45600</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>17</v>
@@ -2149,7 +2149,7 @@
         <v>45600</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>17</v>
@@ -2181,7 +2181,7 @@
         <v>45600</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>17</v>
@@ -2213,7 +2213,7 @@
         <v>45600</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>17</v>
@@ -2245,7 +2245,7 @@
         <v>45600</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>17</v>
@@ -2277,7 +2277,7 @@
         <v>45600</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>17</v>
@@ -2309,7 +2309,7 @@
         <v>45600</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>17</v>
@@ -2341,7 +2341,7 @@
         <v>45600</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>17</v>
@@ -2373,7 +2373,7 @@
         <v>45600</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>17</v>
@@ -2409,7 +2409,7 @@
         <v>45600</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>17</v>
@@ -2441,7 +2441,7 @@
         <v>45600</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>17</v>
@@ -2473,7 +2473,7 @@
         <v>45600</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>17</v>
@@ -2537,7 +2537,7 @@
         <v>45600</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>17</v>
@@ -2569,7 +2569,7 @@
         <v>45600</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>17</v>
@@ -2601,7 +2601,7 @@
         <v>45600</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J35" s="15" t="s">
         <v>17</v>
@@ -2633,7 +2633,7 @@
         <v>45600</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>17</v>
@@ -2665,7 +2665,7 @@
         <v>45600</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>17</v>
@@ -2697,7 +2697,7 @@
         <v>45600</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>17</v>
@@ -2729,7 +2729,7 @@
         <v>45600</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>17</v>
@@ -2761,7 +2761,7 @@
         <v>45600</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>17</v>
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>22</v>
@@ -2825,7 +2825,7 @@
         <v>45600</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>17</v>
@@ -2857,7 +2857,7 @@
         <v>45600</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>17</v>
@@ -2889,7 +2889,7 @@
         <v>45600</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>17</v>
@@ -2921,7 +2921,7 @@
         <v>45600</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>17</v>
@@ -2953,7 +2953,7 @@
         <v>45600</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>17</v>
@@ -2964,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>22</v>
@@ -2985,7 +2985,7 @@
         <v>45600</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>17</v>
@@ -2996,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>22</v>
@@ -3028,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>22</v>
@@ -3060,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>22</v>
@@ -3081,7 +3081,7 @@
         <v>45600</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>17</v>
@@ -3092,7 +3092,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>22</v>
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>22</v>
@@ -3156,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>22</v>
@@ -3188,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>22</v>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>22</v>
@@ -3252,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>22</v>

--- a/Base/Backlog_5.xlsx
+++ b/Base/Backlog_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4E0A1-0DD1-488D-93D0-C2AC64071A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074F9CA-C5D6-4917-8796-C1DA7311374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -179,12 +179,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +258,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1458,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1534,8 +1543,8 @@
       <c r="H2" s="12">
         <v>45600</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
+      <c r="I2" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>17</v>
@@ -1545,8 +1554,8 @@
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
+      <c r="B3" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
@@ -1566,8 +1575,8 @@
       <c r="H3" s="12">
         <v>45600</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
+      <c r="I3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>17</v>
@@ -1598,8 +1607,8 @@
       <c r="H4" s="12">
         <v>45600</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
+      <c r="I4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>17</v>
@@ -1630,7 +1639,7 @@
       <c r="H5" s="12">
         <v>45600</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -1662,7 +1671,7 @@
       <c r="H6" s="12">
         <v>45600</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -1694,8 +1703,8 @@
       <c r="H7" s="12">
         <v>45600</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
+      <c r="I7" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>17</v>
@@ -1726,8 +1735,8 @@
       <c r="H8" s="12">
         <v>45600</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
+      <c r="I8" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>17</v>
@@ -1758,7 +1767,7 @@
       <c r="H9" s="12">
         <v>45600</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1790,8 +1799,8 @@
       <c r="H10" s="12">
         <v>45600</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
+      <c r="I10" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>17</v>
@@ -1822,8 +1831,8 @@
       <c r="H11" s="12">
         <v>45600</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>11</v>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>17</v>
@@ -1854,8 +1863,8 @@
       <c r="H12" s="12">
         <v>45600</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>11</v>
+      <c r="I12" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>17</v>
@@ -1886,7 +1895,7 @@
       <c r="H13" s="12">
         <v>45600</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="15" t="s">
@@ -1918,8 +1927,8 @@
       <c r="H14" s="12">
         <v>45600</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>11</v>
+      <c r="I14" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>17</v>
@@ -1950,8 +1959,8 @@
       <c r="H15" s="12">
         <v>45600</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>11</v>
+      <c r="I15" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>17</v>
@@ -1982,8 +1991,8 @@
       <c r="H16" s="12">
         <v>45600</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>11</v>
+      <c r="I16" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>17</v>
@@ -2014,8 +2023,8 @@
       <c r="H17" s="12">
         <v>45600</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>11</v>
+      <c r="I17" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>17</v>
@@ -2052,7 +2061,7 @@
       <c r="H18" s="12">
         <v>45600</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -2084,8 +2093,8 @@
       <c r="H19" s="12">
         <v>45600</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>11</v>
+      <c r="I19" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>17</v>
@@ -2116,7 +2125,7 @@
       <c r="H20" s="12">
         <v>45600</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="15" t="s">
@@ -2148,7 +2157,7 @@
       <c r="H21" s="12">
         <v>45600</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="15" t="s">
@@ -2180,7 +2189,7 @@
       <c r="H22" s="12">
         <v>45600</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="15" t="s">
@@ -2212,7 +2221,7 @@
       <c r="H23" s="12">
         <v>45600</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="15" t="s">
@@ -2244,7 +2253,7 @@
       <c r="H24" s="12">
         <v>45600</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="15" t="s">
@@ -2276,7 +2285,7 @@
       <c r="H25" s="12">
         <v>45600</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="15" t="s">
@@ -2308,7 +2317,7 @@
       <c r="H26" s="12">
         <v>45600</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="15" t="s">
@@ -2340,7 +2349,7 @@
       <c r="H27" s="12">
         <v>45600</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="15" t="s">
@@ -2372,7 +2381,7 @@
       <c r="H28" s="12">
         <v>45600</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="15" t="s">
@@ -2408,7 +2417,7 @@
       <c r="H29" s="12">
         <v>45600</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="15" t="s">
@@ -2440,7 +2449,7 @@
       <c r="H30" s="12">
         <v>45600</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="15" t="s">
@@ -2472,7 +2481,7 @@
       <c r="H31" s="12">
         <v>45600</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="15" t="s">
@@ -2484,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>22</v>
@@ -2504,8 +2513,8 @@
       <c r="H32" s="12">
         <v>45600</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>11</v>
+      <c r="I32" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>17</v>
@@ -2536,7 +2545,7 @@
       <c r="H33" s="12">
         <v>45600</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="15" t="s">
@@ -2568,7 +2577,7 @@
       <c r="H34" s="12">
         <v>45600</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="15" t="s">
@@ -2600,7 +2609,7 @@
       <c r="H35" s="12">
         <v>45600</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="15" t="s">
@@ -2632,7 +2641,7 @@
       <c r="H36" s="12">
         <v>45600</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="15" t="s">
@@ -2664,7 +2673,7 @@
       <c r="H37" s="12">
         <v>45600</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="15" t="s">
@@ -2696,7 +2705,7 @@
       <c r="H38" s="12">
         <v>45600</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J38" s="15" t="s">
@@ -2728,7 +2737,7 @@
       <c r="H39" s="12">
         <v>45600</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="15" t="s">
@@ -2760,7 +2769,7 @@
       <c r="H40" s="12">
         <v>45600</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J40" s="15" t="s">
@@ -2792,8 +2801,8 @@
       <c r="H41" s="12">
         <v>45600</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>11</v>
+      <c r="I41" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>17</v>
@@ -2824,7 +2833,7 @@
       <c r="H42" s="12">
         <v>45600</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="15" t="s">
@@ -2856,7 +2865,7 @@
       <c r="H43" s="12">
         <v>45600</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J43" s="15" t="s">
@@ -2888,7 +2897,7 @@
       <c r="H44" s="12">
         <v>45600</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J44" s="15" t="s">
@@ -2920,7 +2929,7 @@
       <c r="H45" s="12">
         <v>45600</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J45" s="15" t="s">
@@ -2952,7 +2961,7 @@
       <c r="H46" s="12">
         <v>45600</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J46" s="15" t="s">
@@ -2984,7 +2993,7 @@
       <c r="H47" s="12">
         <v>45600</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J47" s="15" t="s">
@@ -3016,8 +3025,8 @@
       <c r="H48" s="12">
         <v>45600</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>11</v>
+      <c r="I48" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>17</v>
@@ -3048,8 +3057,8 @@
       <c r="H49" s="12">
         <v>45600</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>11</v>
+      <c r="I49" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>17</v>
@@ -3080,7 +3089,7 @@
       <c r="H50" s="12">
         <v>45600</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="15" t="s">
@@ -3112,8 +3121,8 @@
       <c r="H51" s="12">
         <v>45600</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>11</v>
+      <c r="I51" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>17</v>
@@ -3144,8 +3153,8 @@
       <c r="H52" s="12">
         <v>45600</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>11</v>
+      <c r="I52" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>17</v>
@@ -3176,8 +3185,8 @@
       <c r="H53" s="12">
         <v>45600</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>11</v>
+      <c r="I53" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>17</v>
@@ -3208,8 +3217,8 @@
       <c r="H54" s="12">
         <v>45600</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>11</v>
+      <c r="I54" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>17</v>
@@ -3240,8 +3249,8 @@
       <c r="H55" s="12">
         <v>45600</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>11</v>
+      <c r="I55" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>17</v>
@@ -3272,8 +3281,8 @@
       <c r="H56" s="12">
         <v>45600</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>11</v>
+      <c r="I56" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>17</v>

--- a/Base/Backlog_5.xlsx
+++ b/Base/Backlog_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074F9CA-C5D6-4917-8796-C1DA7311374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AC40FC-C8E7-4363-B720-8DE6C14B8393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Erick Silva</t>
-  </si>
-  <si>
-    <t>Semana 05</t>
   </si>
   <si>
     <t>Alana Neris</t>
@@ -579,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,8 +634,8 @@
       <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
+      <c r="C2" s="5">
+        <v>5</v>
       </c>
       <c r="D2" s="12">
         <v>45600</v>
@@ -656,7 +653,7 @@
         <v>45600</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>16</v>
@@ -669,8 +666,8 @@
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
+      <c r="C3" s="5">
+        <v>5</v>
       </c>
       <c r="D3" s="12">
         <v>45600</v>
@@ -701,8 +698,8 @@
       <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
+      <c r="C4" s="5">
+        <v>5</v>
       </c>
       <c r="D4" s="12">
         <v>45600</v>
@@ -720,7 +717,7 @@
         <v>45600</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>16</v>
@@ -733,8 +730,8 @@
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
+      <c r="C5" s="5">
+        <v>5</v>
       </c>
       <c r="D5" s="12">
         <v>45600</v>
@@ -765,8 +762,8 @@
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
+      <c r="C6" s="5">
+        <v>5</v>
       </c>
       <c r="D6" s="12">
         <v>45600</v>
@@ -797,8 +794,8 @@
       <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
+      <c r="C7" s="5">
+        <v>5</v>
       </c>
       <c r="D7" s="12">
         <v>45600</v>
@@ -816,7 +813,7 @@
         <v>45600</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>16</v>
@@ -829,8 +826,8 @@
       <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
+      <c r="C8" s="5">
+        <v>5</v>
       </c>
       <c r="D8" s="12">
         <v>45600</v>
@@ -861,8 +858,8 @@
       <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
+      <c r="C9" s="5">
+        <v>5</v>
       </c>
       <c r="D9" s="12">
         <v>45600</v>
@@ -893,8 +890,8 @@
       <c r="B10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
+      <c r="C10" s="5">
+        <v>5</v>
       </c>
       <c r="D10" s="12">
         <v>45600</v>
@@ -912,7 +909,7 @@
         <v>45600</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>16</v>
@@ -925,8 +922,8 @@
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
+      <c r="C11" s="5">
+        <v>5</v>
       </c>
       <c r="D11" s="12">
         <v>45600</v>
@@ -944,7 +941,7 @@
         <v>45600</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>16</v>
@@ -957,8 +954,8 @@
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="5">
+        <v>5</v>
       </c>
       <c r="D12" s="12">
         <v>45600</v>
@@ -976,7 +973,7 @@
         <v>45600</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>16</v>
@@ -989,8 +986,8 @@
       <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
+      <c r="C13" s="5">
+        <v>5</v>
       </c>
       <c r="D13" s="12">
         <v>45600</v>
@@ -1008,7 +1005,7 @@
         <v>45600</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>16</v>
@@ -1021,8 +1018,8 @@
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
+      <c r="C14" s="5">
+        <v>5</v>
       </c>
       <c r="D14" s="12">
         <v>45600</v>
@@ -1040,7 +1037,7 @@
         <v>45600</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>16</v>
@@ -1053,8 +1050,8 @@
       <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
+      <c r="C15" s="5">
+        <v>5</v>
       </c>
       <c r="D15" s="12">
         <v>45600</v>
@@ -1085,8 +1082,8 @@
       <c r="B16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
+      <c r="C16" s="5">
+        <v>5</v>
       </c>
       <c r="D16" s="12">
         <v>45600</v>
@@ -1117,8 +1114,8 @@
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
+      <c r="C17" s="5">
+        <v>5</v>
       </c>
       <c r="D17" s="12">
         <v>45600</v>
@@ -1149,8 +1146,8 @@
       <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
+      <c r="C18" s="5">
+        <v>5</v>
       </c>
       <c r="D18" s="12">
         <v>45600</v>
@@ -1168,7 +1165,7 @@
         <v>45600</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>16</v>
@@ -1181,8 +1178,8 @@
       <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
+      <c r="C19" s="5">
+        <v>5</v>
       </c>
       <c r="D19" s="12">
         <v>45600</v>
@@ -1200,7 +1197,7 @@
         <v>45600</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>16</v>
@@ -1213,8 +1210,8 @@
       <c r="B20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
+      <c r="C20" s="5">
+        <v>5</v>
       </c>
       <c r="D20" s="12">
         <v>45600</v>
@@ -1245,8 +1242,8 @@
       <c r="B21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
+      <c r="C21" s="5">
+        <v>5</v>
       </c>
       <c r="D21" s="12">
         <v>45600</v>
@@ -1264,7 +1261,7 @@
         <v>45600</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>16</v>
@@ -1277,8 +1274,8 @@
       <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
+      <c r="C22" s="5">
+        <v>5</v>
       </c>
       <c r="D22" s="12">
         <v>45600</v>
@@ -1296,7 +1293,7 @@
         <v>45600</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>16</v>
@@ -1309,8 +1306,8 @@
       <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
+      <c r="C23" s="5">
+        <v>5</v>
       </c>
       <c r="D23" s="12">
         <v>45600</v>
@@ -1328,7 +1325,7 @@
         <v>45600</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>16</v>
@@ -1341,8 +1338,8 @@
       <c r="B24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
+      <c r="C24" s="5">
+        <v>5</v>
       </c>
       <c r="D24" s="12">
         <v>45600</v>
@@ -1373,8 +1370,8 @@
       <c r="B25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
+      <c r="C25" s="5">
+        <v>5</v>
       </c>
       <c r="D25" s="12">
         <v>45600</v>
@@ -1392,7 +1389,7 @@
         <v>45600</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>16</v>
@@ -1403,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5</v>
       </c>
       <c r="D26" s="12">
         <v>45600</v>
@@ -1424,7 +1421,7 @@
         <v>45600</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>16</v>
@@ -1467,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1523,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
       </c>
       <c r="D2" s="12">
         <v>45600</v>
@@ -1544,7 +1541,7 @@
         <v>45600</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>17</v>
@@ -1557,8 +1554,8 @@
       <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
+      <c r="C3" s="5">
+        <v>5</v>
       </c>
       <c r="D3" s="12">
         <v>45600</v>
@@ -1576,7 +1573,7 @@
         <v>45600</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>17</v>
@@ -1587,10 +1584,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
       </c>
       <c r="D4" s="12">
         <v>45600</v>
@@ -1608,7 +1605,7 @@
         <v>45600</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>17</v>
@@ -1621,8 +1618,8 @@
       <c r="B5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
+      <c r="C5" s="5">
+        <v>5</v>
       </c>
       <c r="D5" s="12">
         <v>45600</v>
@@ -1640,7 +1637,7 @@
         <v>45600</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>17</v>
@@ -1653,8 +1650,8 @@
       <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
+      <c r="C6" s="5">
+        <v>5</v>
       </c>
       <c r="D6" s="12">
         <v>45600</v>
@@ -1672,7 +1669,7 @@
         <v>45600</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>17</v>
@@ -1685,8 +1682,8 @@
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
+      <c r="C7" s="5">
+        <v>5</v>
       </c>
       <c r="D7" s="12">
         <v>45600</v>
@@ -1704,7 +1701,7 @@
         <v>45600</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>17</v>
@@ -1717,8 +1714,8 @@
       <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
+      <c r="C8" s="5">
+        <v>5</v>
       </c>
       <c r="D8" s="12">
         <v>45600</v>
@@ -1736,7 +1733,7 @@
         <v>45600</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>17</v>
@@ -1749,8 +1746,8 @@
       <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
+      <c r="C9" s="5">
+        <v>5</v>
       </c>
       <c r="D9" s="12">
         <v>45600</v>
@@ -1768,7 +1765,7 @@
         <v>45600</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>17</v>
@@ -1781,8 +1778,8 @@
       <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
+      <c r="C10" s="5">
+        <v>5</v>
       </c>
       <c r="D10" s="12">
         <v>45600</v>
@@ -1800,7 +1797,7 @@
         <v>45600</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>17</v>
@@ -1813,8 +1810,8 @@
       <c r="B11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
+      <c r="C11" s="5">
+        <v>5</v>
       </c>
       <c r="D11" s="12">
         <v>45600</v>
@@ -1832,7 +1829,7 @@
         <v>45600</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>17</v>
@@ -1845,8 +1842,8 @@
       <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="5">
+        <v>5</v>
       </c>
       <c r="D12" s="12">
         <v>45600</v>
@@ -1864,7 +1861,7 @@
         <v>45600</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>17</v>
@@ -1877,8 +1874,8 @@
       <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
+      <c r="C13" s="5">
+        <v>5</v>
       </c>
       <c r="D13" s="12">
         <v>45600</v>
@@ -1896,7 +1893,7 @@
         <v>45600</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>17</v>
@@ -1909,8 +1906,8 @@
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
+      <c r="C14" s="5">
+        <v>5</v>
       </c>
       <c r="D14" s="12">
         <v>45600</v>
@@ -1928,7 +1925,7 @@
         <v>45600</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>17</v>
@@ -1941,8 +1938,8 @@
       <c r="B15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
+      <c r="C15" s="5">
+        <v>5</v>
       </c>
       <c r="D15" s="12">
         <v>45600</v>
@@ -1960,7 +1957,7 @@
         <v>45600</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>17</v>
@@ -1973,8 +1970,8 @@
       <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
+      <c r="C16" s="5">
+        <v>5</v>
       </c>
       <c r="D16" s="12">
         <v>45600</v>
@@ -1992,7 +1989,7 @@
         <v>45600</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>17</v>
@@ -2005,8 +2002,8 @@
       <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
+      <c r="C17" s="5">
+        <v>5</v>
       </c>
       <c r="D17" s="12">
         <v>45600</v>
@@ -2024,7 +2021,7 @@
         <v>45600</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>17</v>
@@ -2043,8 +2040,8 @@
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
+      <c r="C18" s="5">
+        <v>5</v>
       </c>
       <c r="D18" s="12">
         <v>45600</v>
@@ -2062,7 +2059,7 @@
         <v>45600</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>17</v>
@@ -2075,8 +2072,8 @@
       <c r="B19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
+      <c r="C19" s="5">
+        <v>5</v>
       </c>
       <c r="D19" s="12">
         <v>45600</v>
@@ -2094,7 +2091,7 @@
         <v>45600</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>17</v>
@@ -2107,8 +2104,8 @@
       <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
+      <c r="C20" s="5">
+        <v>5</v>
       </c>
       <c r="D20" s="12">
         <v>45600</v>
@@ -2126,7 +2123,7 @@
         <v>45600</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>17</v>
@@ -2139,8 +2136,8 @@
       <c r="B21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
+      <c r="C21" s="5">
+        <v>5</v>
       </c>
       <c r="D21" s="12">
         <v>45600</v>
@@ -2158,7 +2155,7 @@
         <v>45600</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>17</v>
@@ -2171,8 +2168,8 @@
       <c r="B22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
+      <c r="C22" s="5">
+        <v>5</v>
       </c>
       <c r="D22" s="12">
         <v>45600</v>
@@ -2190,7 +2187,7 @@
         <v>45600</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>17</v>
@@ -2203,8 +2200,8 @@
       <c r="B23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
+      <c r="C23" s="5">
+        <v>5</v>
       </c>
       <c r="D23" s="12">
         <v>45600</v>
@@ -2222,7 +2219,7 @@
         <v>45600</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>17</v>
@@ -2235,8 +2232,8 @@
       <c r="B24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
+      <c r="C24" s="5">
+        <v>5</v>
       </c>
       <c r="D24" s="12">
         <v>45600</v>
@@ -2254,7 +2251,7 @@
         <v>45600</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>17</v>
@@ -2267,8 +2264,8 @@
       <c r="B25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
+      <c r="C25" s="5">
+        <v>5</v>
       </c>
       <c r="D25" s="12">
         <v>45600</v>
@@ -2286,7 +2283,7 @@
         <v>45600</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>17</v>
@@ -2299,8 +2296,8 @@
       <c r="B26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
+      <c r="C26" s="5">
+        <v>5</v>
       </c>
       <c r="D26" s="12">
         <v>45600</v>
@@ -2318,7 +2315,7 @@
         <v>45600</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>17</v>
@@ -2331,8 +2328,8 @@
       <c r="B27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>22</v>
+      <c r="C27" s="5">
+        <v>5</v>
       </c>
       <c r="D27" s="12">
         <v>45600</v>
@@ -2350,7 +2347,7 @@
         <v>45600</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>17</v>
@@ -2363,8 +2360,8 @@
       <c r="B28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
+      <c r="C28" s="5">
+        <v>5</v>
       </c>
       <c r="D28" s="12">
         <v>45600</v>
@@ -2382,7 +2379,7 @@
         <v>45600</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>17</v>
@@ -2399,8 +2396,8 @@
       <c r="B29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
+      <c r="C29" s="5">
+        <v>5</v>
       </c>
       <c r="D29" s="12">
         <v>45600</v>
@@ -2418,7 +2415,7 @@
         <v>45600</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>17</v>
@@ -2431,8 +2428,8 @@
       <c r="B30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
+      <c r="C30" s="5">
+        <v>5</v>
       </c>
       <c r="D30" s="12">
         <v>45600</v>
@@ -2450,7 +2447,7 @@
         <v>45600</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>17</v>
@@ -2463,8 +2460,8 @@
       <c r="B31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>22</v>
+      <c r="C31" s="5">
+        <v>5</v>
       </c>
       <c r="D31" s="12">
         <v>45600</v>
@@ -2482,7 +2479,7 @@
         <v>45600</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>17</v>
@@ -2495,8 +2492,8 @@
       <c r="B32" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>22</v>
+      <c r="C32" s="5">
+        <v>5</v>
       </c>
       <c r="D32" s="12">
         <v>45600</v>
@@ -2514,7 +2511,7 @@
         <v>45600</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>17</v>
@@ -2527,8 +2524,8 @@
       <c r="B33" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
+      <c r="C33" s="5">
+        <v>5</v>
       </c>
       <c r="D33" s="12">
         <v>45600</v>
@@ -2546,7 +2543,7 @@
         <v>45600</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>17</v>
@@ -2559,8 +2556,8 @@
       <c r="B34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>22</v>
+      <c r="C34" s="5">
+        <v>5</v>
       </c>
       <c r="D34" s="12">
         <v>45600</v>
@@ -2578,7 +2575,7 @@
         <v>45600</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>17</v>
@@ -2591,8 +2588,8 @@
       <c r="B35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>22</v>
+      <c r="C35" s="5">
+        <v>5</v>
       </c>
       <c r="D35" s="12">
         <v>45600</v>
@@ -2610,7 +2607,7 @@
         <v>45600</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" s="15" t="s">
         <v>17</v>
@@ -2623,8 +2620,8 @@
       <c r="B36" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>22</v>
+      <c r="C36" s="5">
+        <v>5</v>
       </c>
       <c r="D36" s="12">
         <v>45600</v>
@@ -2642,7 +2639,7 @@
         <v>45600</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>17</v>
@@ -2655,8 +2652,8 @@
       <c r="B37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>22</v>
+      <c r="C37" s="5">
+        <v>5</v>
       </c>
       <c r="D37" s="12">
         <v>45600</v>
@@ -2674,7 +2671,7 @@
         <v>45600</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>17</v>
@@ -2687,8 +2684,8 @@
       <c r="B38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>22</v>
+      <c r="C38" s="5">
+        <v>5</v>
       </c>
       <c r="D38" s="12">
         <v>45600</v>
@@ -2706,7 +2703,7 @@
         <v>45600</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>17</v>
@@ -2719,8 +2716,8 @@
       <c r="B39" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>22</v>
+      <c r="C39" s="5">
+        <v>5</v>
       </c>
       <c r="D39" s="12">
         <v>45600</v>
@@ -2738,7 +2735,7 @@
         <v>45600</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>17</v>
@@ -2751,8 +2748,8 @@
       <c r="B40" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>22</v>
+      <c r="C40" s="5">
+        <v>5</v>
       </c>
       <c r="D40" s="12">
         <v>45600</v>
@@ -2770,7 +2767,7 @@
         <v>45600</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>17</v>
@@ -2781,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5</v>
       </c>
       <c r="D41" s="12">
         <v>45600</v>
@@ -2802,7 +2799,7 @@
         <v>45600</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>17</v>
@@ -2815,8 +2812,8 @@
       <c r="B42" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>22</v>
+      <c r="C42" s="5">
+        <v>5</v>
       </c>
       <c r="D42" s="12">
         <v>45600</v>
@@ -2834,7 +2831,7 @@
         <v>45600</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>17</v>
@@ -2847,8 +2844,8 @@
       <c r="B43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>22</v>
+      <c r="C43" s="5">
+        <v>5</v>
       </c>
       <c r="D43" s="12">
         <v>45600</v>
@@ -2866,7 +2863,7 @@
         <v>45600</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>17</v>
@@ -2879,8 +2876,8 @@
       <c r="B44" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>22</v>
+      <c r="C44" s="5">
+        <v>5</v>
       </c>
       <c r="D44" s="12">
         <v>45600</v>
@@ -2898,7 +2895,7 @@
         <v>45600</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>17</v>
@@ -2911,8 +2908,8 @@
       <c r="B45" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>22</v>
+      <c r="C45" s="5">
+        <v>5</v>
       </c>
       <c r="D45" s="12">
         <v>45600</v>
@@ -2930,7 +2927,7 @@
         <v>45600</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>17</v>
@@ -2943,8 +2940,8 @@
       <c r="B46" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>22</v>
+      <c r="C46" s="5">
+        <v>5</v>
       </c>
       <c r="D46" s="12">
         <v>45600</v>
@@ -2962,7 +2959,7 @@
         <v>45600</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>17</v>
@@ -2973,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5</v>
       </c>
       <c r="D47" s="12">
         <v>45600</v>
@@ -2994,7 +2991,7 @@
         <v>45600</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>17</v>
@@ -3005,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
       </c>
       <c r="D48" s="12">
         <v>45600</v>
@@ -3026,7 +3023,7 @@
         <v>45600</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>17</v>
@@ -3037,10 +3034,10 @@
         <v>5</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
       </c>
       <c r="D49" s="12">
         <v>45600</v>
@@ -3058,7 +3055,7 @@
         <v>45600</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>17</v>
@@ -3069,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5</v>
       </c>
       <c r="D50" s="12">
         <v>45600</v>
@@ -3090,7 +3087,7 @@
         <v>45600</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>17</v>
@@ -3101,10 +3098,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
       </c>
       <c r="D51" s="12">
         <v>45600</v>
@@ -3122,7 +3119,7 @@
         <v>45600</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>17</v>
@@ -3133,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5</v>
       </c>
       <c r="D52" s="12">
         <v>45600</v>
@@ -3154,7 +3151,7 @@
         <v>45600</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>17</v>
@@ -3165,10 +3162,10 @@
         <v>5</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C53" s="5">
+        <v>5</v>
       </c>
       <c r="D53" s="12">
         <v>45600</v>
@@ -3186,7 +3183,7 @@
         <v>45600</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>17</v>
@@ -3197,10 +3194,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
       </c>
       <c r="D54" s="12">
         <v>45600</v>
@@ -3218,7 +3215,7 @@
         <v>45600</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>17</v>
@@ -3229,10 +3226,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C55" s="5">
+        <v>5</v>
       </c>
       <c r="D55" s="12">
         <v>45600</v>
@@ -3250,7 +3247,7 @@
         <v>45600</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>17</v>
@@ -3261,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C56" s="5">
+        <v>5</v>
       </c>
       <c r="D56" s="12">
         <v>45600</v>
@@ -3282,7 +3279,7 @@
         <v>45600</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>17</v>

--- a/Base/Backlog_5.xlsx
+++ b/Base/Backlog_5.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CC40F4-D921-4731-96B6-B1EC105F4A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78696AC-7BBB-492B-8D98-6275F7A16AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
     <sheet name="ITI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$J$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPN!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>Backlog</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Lourival Moizés</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +244,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +566,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J15" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,8 +648,8 @@
       <c r="I2" s="10">
         <v>45691</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>12</v>
+      <c r="J2" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>14</v>
@@ -671,8 +683,8 @@
       <c r="I3" s="10">
         <v>45691</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
+      <c r="J3" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>14</v>
@@ -706,8 +718,8 @@
       <c r="I4" s="10">
         <v>45691</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>12</v>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>14</v>
@@ -741,8 +753,8 @@
       <c r="I5" s="10">
         <v>45691</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
+      <c r="J5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>14</v>
@@ -776,8 +788,8 @@
       <c r="I6" s="10">
         <v>45691</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>12</v>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>14</v>
@@ -811,8 +823,8 @@
       <c r="I7" s="10">
         <v>45691</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>12</v>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>14</v>
@@ -846,8 +858,8 @@
       <c r="I8" s="10">
         <v>45691</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>12</v>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>14</v>
@@ -881,8 +893,8 @@
       <c r="I9" s="10">
         <v>45691</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>12</v>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>14</v>
@@ -916,8 +928,8 @@
       <c r="I10" s="10">
         <v>45691</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>12</v>
+      <c r="J10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>14</v>
@@ -1132,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1219,14 +1231,14 @@
         <v>45691</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1261,7 +1273,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1324,7 +1336,7 @@
         <v>45691</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>11</v>
@@ -1335,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13">
         <v>2025</v>
@@ -1350,7 +1362,7 @@
         <v>45695</v>
       </c>
       <c r="G6" s="17">
-        <v>322991</v>
+        <v>322655</v>
       </c>
       <c r="H6" s="6">
         <v>45658</v>
@@ -1359,18 +1371,18 @@
         <v>45691</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="13">
         <v>2025</v>
@@ -1385,7 +1397,7 @@
         <v>45695</v>
       </c>
       <c r="G7" s="17">
-        <v>322655</v>
+        <v>322167</v>
       </c>
       <c r="H7" s="6">
         <v>45658</v>
@@ -1405,12 +1417,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="13">
         <v>2025</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" s="15">
@@ -1419,8 +1431,8 @@
       <c r="F8" s="15">
         <v>45695</v>
       </c>
-      <c r="G8" s="17">
-        <v>322167</v>
+      <c r="G8" s="16">
+        <v>322927</v>
       </c>
       <c r="H8" s="6">
         <v>45658</v>
@@ -1429,7 +1441,7 @@
         <v>45691</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>11</v>
@@ -1455,7 +1467,7 @@
         <v>45695</v>
       </c>
       <c r="G9" s="16">
-        <v>322927</v>
+        <v>322759</v>
       </c>
       <c r="H9" s="6">
         <v>45658</v>
@@ -1464,14 +1476,14 @@
         <v>45691</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1490,7 +1502,7 @@
         <v>45695</v>
       </c>
       <c r="G10" s="16">
-        <v>322759</v>
+        <v>322764</v>
       </c>
       <c r="H10" s="6">
         <v>45658</v>
@@ -1525,7 +1537,7 @@
         <v>45695</v>
       </c>
       <c r="G11" s="16">
-        <v>322764</v>
+        <v>322804</v>
       </c>
       <c r="H11" s="6">
         <v>45658</v>
@@ -1534,81 +1546,33 @@
         <v>45691</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="15">
-        <v>45691</v>
-      </c>
-      <c r="F12" s="15">
-        <v>45695</v>
-      </c>
-      <c r="G12" s="16">
-        <v>322804</v>
-      </c>
-      <c r="H12" s="6">
-        <v>45658</v>
-      </c>
-      <c r="I12" s="15">
-        <v>45691</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15">
-        <v>45691</v>
-      </c>
-      <c r="F13" s="15">
-        <v>45695</v>
-      </c>
-      <c r="G13" s="16">
-        <v>321811</v>
-      </c>
-      <c r="H13" s="6">
-        <v>45658</v>
-      </c>
-      <c r="I13" s="15">
-        <v>45691</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
@@ -1655,24 +1619,24 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="10"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="4"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="10"/>
       <c r="J19" s="4"/>
     </row>
@@ -1683,7 +1647,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="10"/>
       <c r="J20" s="4"/>
     </row>
@@ -1694,7 +1658,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="10"/>
       <c r="J21" s="4"/>
     </row>
@@ -1737,8 +1701,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="10"/>
       <c r="J25" s="4"/>
     </row>
@@ -1748,8 +1711,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="10"/>
       <c r="J26" s="4"/>
     </row>
@@ -1964,94 +1926,82 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
       <c r="D48" s="4"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="H48" s="3"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="H49" s="3"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
-      <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
-      <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="F54" s="10"/>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="F55" s="10"/>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F56" s="10"/>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="4"/>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F57" s="10"/>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F58" s="10"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F59" s="10"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F60" s="10"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F63" s="10"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F64" s="10"/>
       <c r="I64" s="10"/>
     </row>
@@ -2067,16 +2017,8 @@
       <c r="F67" s="10"/>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="10"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="10"/>
-      <c r="I69" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J26" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:J24" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
